--- a/FleetApp - Para ver.xlsx
+++ b/FleetApp - Para ver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Xamarin\FleetApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF10851-0DDB-4D3E-9DBB-18308DE5BE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306E5FD-3C0E-4030-BD36-F6C726E1BCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A87A12D-C301-4FF6-81CE-46C09B52D5E0}"/>
   </bookViews>
@@ -67,12 +67,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,17 +462,20 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A34" sqref="A34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -475,20 +485,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
